--- a/Foundation of Artificial Intelligence/Project 2 ICA/Extra for Knwoledge and Experiment/Result DataBase.xlsx
+++ b/Foundation of Artificial Intelligence/Project 2 ICA/Extra for Knwoledge and Experiment/Result DataBase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters Projects\Master-In-AI\Foundation of Artificial Intelligence\Project 2 ICA\Extra for Knwoledge and Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BDB24-AD6A-4AEE-956F-D535F4454788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4AFD8-5A04-4C63-BEB2-A5A8C8ECFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{3884FB9B-04DF-4A65-ABEA-216B52B7A13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3884FB9B-04DF-4A65-ABEA-216B52B7A13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t xml:space="preserve"> Manhattan</t>
   </si>
@@ -181,13 +182,22 @@
   </si>
   <si>
     <t>Greedy_BFS  Algorithm</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>(N,E,S,W)</t>
+  </si>
+  <si>
+    <t>(-10,10,10,-10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +255,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -445,90 +463,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210CEF63-6A27-4AB2-B262-513B085D396E}">
   <dimension ref="D3:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,443 +1013,443 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>1075</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>1075</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>1075</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>9077</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>2.24E-2</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="K12" s="17" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18" t="s">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="18"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="4:18" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="19" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="K14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="20" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="K14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="K15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="20" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="K15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="K16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="K16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="K17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="20" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="K17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="20" t="s">
+      <c r="M17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="20" t="s">
+      <c r="K18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="20" t="s">
+      <c r="K19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="R20" s="20" t="s">
+      <c r="M20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="20" t="s">
+      <c r="K21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1354,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D20F5-9085-4298-B43E-5601A14EA5E2}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,547 +1491,541 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="D9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="D12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F25" s="24" t="s">
+      <c r="E25" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H25" s="24" t="s">
+      <c r="G25" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="G26" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F27" s="24" t="s">
+      <c r="E27" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H27" s="24" t="s">
+      <c r="G27" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H28" s="24" t="s">
+      <c r="G28" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="18">
         <v>4377</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="24">
-        <v>4377</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="E29" s="18">
+        <v>4377</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="24">
-        <v>4377</v>
-      </c>
-      <c r="H29" s="24" t="s">
+      <c r="G29" s="18">
+        <v>4377</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="18">
         <v>4377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:B5"/>
@@ -1919,6 +2033,98 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0846009-FB41-4613-BEBC-2A4F1F2532D8}">
+  <dimension ref="F13:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F16" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="38">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="42">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Foundation of Artificial Intelligence/Project 2 ICA/Extra for Knwoledge and Experiment/Result DataBase.xlsx
+++ b/Foundation of Artificial Intelligence/Project 2 ICA/Extra for Knwoledge and Experiment/Result DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters Projects\Master-In-AI\Foundation of Artificial Intelligence\Project 2 ICA\Extra for Knwoledge and Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4AFD8-5A04-4C63-BEB2-A5A8C8ECFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB5F8FF-A659-4404-842A-93BE895477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3884FB9B-04DF-4A65-ABEA-216B52B7A13D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3884FB9B-04DF-4A65-ABEA-216B52B7A13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="50">
   <si>
     <t xml:space="preserve"> Manhattan</t>
   </si>
@@ -184,20 +184,17 @@
     <t>Greedy_BFS  Algorithm</t>
   </si>
   <si>
-    <t>Manhattan</t>
-  </si>
-  <si>
-    <t>(N,E,S,W)</t>
-  </si>
-  <si>
-    <t>(-10,10,10,-10)</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +260,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -479,12 +493,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -500,66 +551,32 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,77 +595,140 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,17 +1064,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210CEF63-6A27-4AB2-B262-513B085D396E}">
-  <dimension ref="D3:R21"/>
+  <dimension ref="D3:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:G17"/>
+      <selection activeCell="D4" sqref="D4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
@@ -1008,462 +1091,489 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="2" t="s">
+    <row r="3" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="2" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D6" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D7" s="8" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>1075</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="24">
         <v>1075</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="25">
         <v>1075</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D8" s="8" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>9077</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="11" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="26">
         <v>2.24E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K11" s="21" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="4:10" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="4:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="4:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="4:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="I30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="K12" s="25" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="4:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="I31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="J31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="K31" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="4:18" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="15" t="s">
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="4:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="L32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="N32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="P32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="K14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="16" t="s">
+    <row r="33" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="K33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="L33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="M33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="N33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="O33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="P33" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
+    <row r="34" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="L37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="N37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="K15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="D16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="P37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="K16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="K17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="16" t="s">
+    </row>
+    <row r="38" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="16" t="s">
+      <c r="K38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="16" t="s">
+      <c r="M38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="16" t="s">
+      <c r="O38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="16" t="s">
+    <row r="39" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="K21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="16" t="s">
+      <c r="K39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="9:16" ht="42" x14ac:dyDescent="0.3">
+      <c r="I40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="16" t="s">
+      <c r="K40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="16" t="s">
+      <c r="M40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="16" t="s">
+      <c r="O40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="I30:P30"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1472,573 +1582,576 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D20F5-9085-4298-B43E-5601A14EA5E2}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="N4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="O4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="19" t="s">
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="P5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="Q5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="R5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="S5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="T5" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="O6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="P6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="Q6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="R6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="S6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="T6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="O7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="P7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="Q7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="R7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="S7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="T7" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="O8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="Q8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="S8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="O9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="O10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="P10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="Q10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="R10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="S10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="T10" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="O11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="Q11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="S11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="O12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="O13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="Q13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="S13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="13:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="M19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="N20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="O20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="19" t="s">
+      <c r="T20" s="16"/>
+    </row>
+    <row r="21" spans="13:20" ht="36" x14ac:dyDescent="0.3">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="P21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="Q21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="R21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="S21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="T21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="O22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="18">
+      <c r="P22" s="6">
         <v>4377</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="18">
+      <c r="R22" s="6">
         <v>4377</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="S22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="18">
+      <c r="T22" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="O23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="18">
+      <c r="P23" s="6">
         <v>4377</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="Q23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="18">
+      <c r="R23" s="6">
         <v>4377</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="S23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="18">
+      <c r="T23" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18" t="s">
+    <row r="24" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="O24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="18">
+      <c r="P24" s="6">
         <v>4377</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="Q24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="18">
+      <c r="R24" s="6">
         <v>4377</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="S24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="18">
+      <c r="T24" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="O25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="18">
+      <c r="P25" s="6">
         <v>4377</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="Q25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="18">
+      <c r="R25" s="6">
         <v>4377</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="S25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="18">
+      <c r="T25" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="18" t="s">
+    <row r="26" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="O26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="18">
+      <c r="P26" s="6">
         <v>4377</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="Q26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="18">
+      <c r="R26" s="6">
         <v>4377</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="S26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="18">
+      <c r="T26" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="18" t="s">
+    <row r="27" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="O27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="18">
+      <c r="P27" s="6">
         <v>4377</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="Q27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="18">
+      <c r="R27" s="6">
         <v>4377</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="S27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="18">
+      <c r="T27" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="18" t="s">
+    <row r="28" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="O28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="18">
+      <c r="P28" s="6">
         <v>4377</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="Q28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="18">
+      <c r="R28" s="6">
         <v>4377</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="S28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="18">
+      <c r="T28" s="6">
         <v>4377</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="18" t="s">
+    <row r="29" spans="13:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="M29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="O29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="18">
+      <c r="P29" s="6">
         <v>4377</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="Q29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="18">
+      <c r="R29" s="6">
         <v>4377</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="S29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="18">
+      <c r="T29" s="6">
         <v>4377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2046,85 +2159,306 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0846009-FB41-4613-BEBC-2A4F1F2532D8}">
-  <dimension ref="F13:I19"/>
+  <dimension ref="D3:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="31" t="s">
+    <row r="3" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="F5" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="4:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="38">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="40">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="42">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
+      <c r="G6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
+  <mergeCells count="6">
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
